--- a/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
+++ b/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
@@ -104,9 +104,6 @@
     <t>* OTROS SERVICIOS?</t>
   </si>
   <si>
-    <t>* CTERING MINIMO</t>
-  </si>
-  <si>
     <t>CONTRATACION DE EMPRESAS AUXILIARES</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>DERECHOS DE AUTOR???? (APLICA?)</t>
+  </si>
+  <si>
+    <t>* CATERING MINIMO</t>
   </si>
 </sst>
 </file>
@@ -487,6 +487,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,54 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
       <c r="A3" s="23">
         <v>-20</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -933,9 +933,9 @@
       <c r="A4" s="23">
         <v>-18</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="11"/>
@@ -947,7 +947,7 @@
       <c r="A5" s="23">
         <v>-17</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="A6" s="23">
         <v>-16</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="A7" s="23">
         <v>-15</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="A8" s="23">
         <v>-14</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1005,135 +1005,135 @@
       <c r="A9" s="23">
         <v>-13</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>-12</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>-11</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>-10</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>-9</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>-8</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>-7</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>-6</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>-5</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -1141,9 +1141,9 @@
       <c r="A18" s="23">
         <v>-4</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
@@ -1155,9 +1155,9 @@
       <c r="A19" s="23">
         <v>-3</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
@@ -1169,9 +1169,9 @@
       <c r="A20" s="23">
         <v>-2</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
@@ -1183,9 +1183,9 @@
       <c r="A21" s="23">
         <v>-1</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
@@ -1194,14 +1194,14 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -1210,50 +1210,50 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="E24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="14" t="s">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -1262,10 +1262,10 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -1274,10 +1274,10 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
@@ -1286,10 +1286,10 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
@@ -1298,10 +1298,10 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -1310,10 +1310,10 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
@@ -1322,13 +1322,13 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1336,10 +1336,10 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
@@ -1348,10 +1348,10 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -1360,22 +1360,22 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34" s="14"/>
     </row>
@@ -1383,11 +1383,11 @@
       <c r="A35" s="24">
         <v>2</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
@@ -1399,18 +1399,18 @@
       <c r="A36" s="24">
         <v>3</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -1419,9 +1419,9 @@
       <c r="A37" s="24">
         <v>4</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
@@ -1433,9 +1433,9 @@
       <c r="A38" s="24">
         <v>5</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>
@@ -1447,72 +1447,72 @@
       <c r="A39" s="24">
         <v>6</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="25"/>
+      <c r="E39" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="44"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
-      <c r="B41" s="42"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
         <v>7</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -1521,9 +1521,9 @@
       <c r="A44" s="24">
         <v>8</v>
       </c>
-      <c r="B44" s="41"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
@@ -1533,9 +1533,9 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="17"/>
@@ -1544,13 +1544,7 @@
       <c r="H45" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
   <mergeCells count="14">
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="B3:B21"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="D39:D42"/>
     <mergeCell ref="E39:E42"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="G39:G42"/>
@@ -1560,6 +1554,11 @@
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="G9:G16"/>
     <mergeCell ref="H9:H16"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="B3:B21"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="D39:D42"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E22">
@@ -1745,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1756,47 +1755,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
+++ b/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t>DIA</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Requerida</t>
   </si>
   <si>
-    <t>Compras</t>
-  </si>
-  <si>
     <t>CTO</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>CONTROL &amp; PLANIFICACION</t>
   </si>
   <si>
-    <t>SERVICIOS GENERALES</t>
-  </si>
-  <si>
     <t>SEGURIDAD</t>
   </si>
   <si>
@@ -261,6 +255,18 @@
   </si>
   <si>
     <t>* CATERING MINIMO</t>
+  </si>
+  <si>
+    <t>ARTICULAR CON HIGIENE Y SEGURIDAD / CTO</t>
+  </si>
+  <si>
+    <t>CONTROL DE ACCESO</t>
+  </si>
+  <si>
+    <t>SERVICIOS GRALES</t>
+  </si>
+  <si>
+    <t>ESPACIOS FISICOS</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,11 +479,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -487,6 +491,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -535,31 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -884,7 +882,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -914,10 +912,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>-20</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -926,28 +924,30 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>-18</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>-17</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
@@ -958,10 +958,10 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>-16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
@@ -972,10 +972,10 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>-15</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
@@ -986,612 +986,678 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>-14</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>-13</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>-12</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>-11</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>-10</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>-9</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="21">
         <v>-8</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>-7</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>-6</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+        <v>77</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>-5</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="12" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>-4</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>-3</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="21">
         <v>-2</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>-1</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>60</v>
       </c>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+      <c r="A35" s="22">
         <v>2</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="D35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="16" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="D36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+      <c r="A37" s="22">
         <v>4</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
+      <c r="A38" s="22">
         <v>5</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
+      <c r="A39" s="22">
         <v>6</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="41" t="s">
+      <c r="D39" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="41"/>
+      <c r="G39" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="21" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="21" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="22" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+      <c r="A43" s="22">
         <v>7</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
+      <c r="A44" s="22">
         <v>8</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="16" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="H9:H16"/>
+  <mergeCells count="8">
     <mergeCell ref="A22:A34"/>
     <mergeCell ref="B3:B21"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="B22:B34"/>
     <mergeCell ref="D39:D42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="D9:D16"/>
   </mergeCells>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E22">
-      <formula1>$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:E33">
-      <formula1>$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35">
-      <formula1>$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:E38">
-      <formula1>$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44:E45">
-      <formula1>$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F22">
-      <formula1>$C$2:$C$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F33">
-      <formula1>$C$2:$C$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35">
-      <formula1>$C$2:$C$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:F38">
-      <formula1>$C$2:$C$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F45">
-      <formula1>$C$2:$C$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
@@ -1601,19 +1667,19 @@
           <x14:formula1>
             <xm:f>DATOS!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E9 D9:D16</xm:sqref>
+          <xm:sqref>D9:D16 E3:E45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F9 F17</xm:sqref>
+          <xm:sqref>F3:F39 F43:F45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G16 G17</xm:sqref>
+          <xm:sqref>G9:G45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1733,7 +1799,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1810,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1755,7 +1821,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>57</v>
@@ -1766,7 +1832,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>58</v>
@@ -1777,7 +1843,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
@@ -1785,17 +1851,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
+++ b/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t>DIA</t>
   </si>
@@ -152,9 +152,6 @@
     <t>REUNION PREVIA DE COORDINACION DEL PERSONAL</t>
   </si>
   <si>
-    <t>(revisar procedimientos y sincronizar y atacar imprevistos)</t>
-  </si>
-  <si>
     <t>PORT-PRODUCCION</t>
   </si>
   <si>
@@ -218,18 +215,6 @@
     <t>ELABORACION DE PRESUPUESTO</t>
   </si>
   <si>
-    <t>MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>PRODUCTOR</t>
-  </si>
-  <si>
-    <t>CONTROL &amp; PLANIFICACION</t>
-  </si>
-  <si>
-    <t>SEGURIDAD</t>
-  </si>
-  <si>
     <t>RRHH</t>
   </si>
   <si>
@@ -257,23 +242,44 @@
     <t>* CATERING MINIMO</t>
   </si>
   <si>
-    <t>ARTICULAR CON HIGIENE Y SEGURIDAD / CTO</t>
-  </si>
-  <si>
-    <t>CONTROL DE ACCESO</t>
-  </si>
-  <si>
-    <t>SERVICIOS GRALES</t>
-  </si>
-  <si>
-    <t>ESPACIOS FISICOS</t>
+    <t>PRODUCCION?</t>
+  </si>
+  <si>
+    <t>CONTROL &amp; PLANIFICACION / CTO</t>
+  </si>
+  <si>
+    <t>CONTROL &amp; PLANIFICACION - CTO</t>
+  </si>
+  <si>
+    <t>ARTICULAR CON HIGIENE Y SEGURIDAD + ADMINISTRACION - CTO</t>
+  </si>
+  <si>
+    <t>ARTICULAR CON OP.&amp;LOGISTICA + HIGIENE &amp; SEGURIDAD, ETC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTICULAR CON OP.&amp;LOGISTICA </t>
+  </si>
+  <si>
+    <t>ARTICULAR CON OP.&amp; LOGISTICA + LIMPIEZA</t>
+  </si>
+  <si>
+    <t>ARTICULAR CON MESA DE AYUDA + CONTROL DE ACCESO</t>
+  </si>
+  <si>
+    <t>ARTICULAR CON CONTROL DE ACCESO</t>
+  </si>
+  <si>
+    <t>ARTICULAR CON SEGURIDAD</t>
+  </si>
+  <si>
+    <t>(revisar procedimientos, sincronizar y atacar imprevistos)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +316,21 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,6 +512,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,64 +584,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -873,8 +912,8 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="47" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="4" style="1"/>
@@ -882,7 +921,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -898,10 +937,10 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -915,31 +954,37 @@
       <c r="A3" s="21">
         <v>-20</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>-18</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="23"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
@@ -947,13 +992,15 @@
       <c r="A5" s="21">
         <v>-17</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
@@ -961,13 +1008,15 @@
       <c r="A6" s="21">
         <v>-16</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
@@ -975,13 +1024,15 @@
       <c r="A7" s="21">
         <v>-15</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
@@ -989,15 +1040,17 @@
       <c r="A8" s="21">
         <v>-14</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="23"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
         <v>19</v>
@@ -1007,145 +1060,147 @@
       <c r="A9" s="21">
         <v>-13</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="11"/>
+      <c r="D9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="23"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>-12</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="23"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>-11</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="11"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>-10</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="11"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="23"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>-9</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="23"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>-8</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="11"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="23"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>-7</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="45"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>-6</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="45"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>-5</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -1153,39 +1208,43 @@
       <c r="A18" s="21">
         <v>-4</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>57</v>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>-3</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="11"/>
+      <c r="D19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -1193,17 +1252,19 @@
       <c r="A20" s="21">
         <v>-2</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1211,96 +1272,108 @@
       <c r="A21" s="21">
         <v>-1</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>58</v>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>60</v>
@@ -1308,103 +1381,111 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="11"/>
+      <c r="D30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>60</v>
@@ -1412,48 +1493,50 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="14" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="H34" s="14"/>
     </row>
@@ -1461,20 +1544,20 @@
       <c r="A35" s="22">
         <v>2</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="D35" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>60</v>
@@ -1485,21 +1568,21 @@
       <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="15"/>
     </row>
@@ -1507,15 +1590,17 @@
       <c r="A37" s="22">
         <v>4</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="15"/>
     </row>
@@ -1523,15 +1608,17 @@
       <c r="A38" s="22">
         <v>5</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="17"/>
     </row>
@@ -1539,81 +1626,75 @@
       <c r="A39" s="22">
         <v>6</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="37"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="37"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="37"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>7</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="16"/>
     </row>
@@ -1621,43 +1702,55 @@
       <c r="A44" s="22">
         <v>8</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="38"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="E39:E42"/>
     <mergeCell ref="A22:A34"/>
     <mergeCell ref="B3:B21"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="B22:B34"/>
     <mergeCell ref="D39:D42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="D43:D45"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E39">
+      <formula1>$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
+      <formula1>$A$2:$A$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
@@ -1665,9 +1758,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATOS!$A$2:$A$7</xm:f>
+            <xm:f>DATOS!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D16 E3:E45</xm:sqref>
+          <xm:sqref>D9:D16 E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1679,7 +1772,7 @@
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G45</xm:sqref>
+          <xm:sqref>G9:G17 G19:G21 G23:G24 G26 G28:G30 G32:G33 G36:G39 G43:G45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1796,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1821,47 +1914,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
+++ b/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Procesos Claves y de Apoyo'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Procesos Claves y de Apoyo'!$A$1:$G$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Procesos Claves y de Apoyo'!$A$1:$H$45</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,21 +316,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +503,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -565,39 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,20 +882,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="26" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="4" style="1"/>
@@ -937,10 +922,10 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -954,7 +939,7 @@
       <c r="A3" s="21">
         <v>-20</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -974,14 +959,14 @@
       <c r="A4" s="21">
         <v>-18</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="23"/>
@@ -992,14 +977,14 @@
       <c r="A5" s="21">
         <v>-17</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="23"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1008,14 +993,14 @@
       <c r="A6" s="21">
         <v>-16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="23"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1024,14 +1009,14 @@
       <c r="A7" s="21">
         <v>-15</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="23"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1040,14 +1025,14 @@
       <c r="A8" s="21">
         <v>-14</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="23"/>
@@ -1060,14 +1045,14 @@
       <c r="A9" s="21">
         <v>-13</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="23"/>
@@ -1078,12 +1063,12 @@
       <c r="A10" s="21">
         <v>-12</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="23"/>
@@ -1094,12 +1079,12 @@
       <c r="A11" s="21">
         <v>-11</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="23"/>
@@ -1110,12 +1095,12 @@
       <c r="A12" s="21">
         <v>-10</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="23"/>
@@ -1126,12 +1111,12 @@
       <c r="A13" s="21">
         <v>-9</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="23"/>
@@ -1142,12 +1127,12 @@
       <c r="A14" s="21">
         <v>-8</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="50" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="23"/>
@@ -1158,12 +1143,12 @@
       <c r="A15" s="21">
         <v>-7</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="23"/>
       <c r="G15" s="12"/>
       <c r="H15" s="24"/>
@@ -1172,12 +1157,12 @@
       <c r="A16" s="21">
         <v>-6</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="23"/>
@@ -1188,14 +1173,14 @@
       <c r="A17" s="21">
         <v>-5</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="23"/>
@@ -1208,14 +1193,14 @@
       <c r="A18" s="21">
         <v>-4</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="23" t="s">
@@ -1232,14 +1217,14 @@
       <c r="A19" s="21">
         <v>-3</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="23"/>
@@ -1252,14 +1237,14 @@
       <c r="A20" s="21">
         <v>-2</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="25" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="23"/>
@@ -1272,14 +1257,14 @@
       <c r="A21" s="21">
         <v>-1</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="23"/>
@@ -1291,10 +1276,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -1303,7 +1288,7 @@
       <c r="D22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="23" t="s">
@@ -1317,15 +1302,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="23" t="s">
@@ -1339,15 +1324,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="23" t="s">
@@ -1361,15 +1346,15 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="23" t="s">
@@ -1381,15 +1366,15 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="23" t="s">
         <v>58</v>
       </c>
@@ -1399,15 +1384,15 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -1421,15 +1406,15 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="23"/>
       <c r="G28" s="12" t="s">
         <v>59</v>
@@ -1437,15 +1422,15 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="23"/>
       <c r="G29" s="12" t="s">
         <v>59</v>
@@ -1453,15 +1438,15 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="23"/>
@@ -1473,18 +1458,18 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -1493,13 +1478,13 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="23"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="23"/>
       <c r="G32" s="12" t="s">
         <v>59</v>
@@ -1507,15 +1492,15 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="23"/>
       <c r="G33" s="12" t="s">
         <v>59</v>
@@ -1523,15 +1508,15 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="23" t="s">
         <v>57</v>
       </c>
@@ -1544,7 +1529,7 @@
       <c r="A35" s="22">
         <v>2</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -1553,7 +1538,7 @@
       <c r="D35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="23" t="s">
@@ -1568,14 +1553,14 @@
       <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="25" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="23" t="s">
@@ -1590,14 +1575,14 @@
       <c r="A37" s="22">
         <v>4</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="23"/>
       <c r="G37" s="12" t="s">
         <v>59</v>
@@ -1608,14 +1593,14 @@
       <c r="A38" s="22">
         <v>5</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="23"/>
       <c r="G38" s="12" t="s">
         <v>59</v>
@@ -1626,70 +1611,70 @@
       <c r="A39" s="22">
         <v>6</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41" t="s">
+      <c r="E39" s="29"/>
+      <c r="F39" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="44"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="45"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="45"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="33"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="46"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>7</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="23" t="s">
         <v>56</v>
       </c>
@@ -1702,12 +1687,12 @@
       <c r="A44" s="22">
         <v>8</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="42"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="23"/>
       <c r="G44" s="12" t="s">
         <v>59</v>
@@ -1716,12 +1701,12 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="34"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="43"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="23"/>
       <c r="G45" s="12" t="s">
         <v>59</v>
@@ -1730,29 +1715,26 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="B3:B21"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D45"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="H39:H42"/>
     <mergeCell ref="D9:D16"/>
     <mergeCell ref="G39:G42"/>
     <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="B3:B21"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D45"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E39">
-      <formula1>$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E39">
       <formula1>$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1760,7 +1742,7 @@
           <x14:formula1>
             <xm:f>DATOS!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D16 E3</xm:sqref>
+          <xm:sqref>D9:D16 E3 E4:E38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1785,7 +1767,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
+++ b/2-calidad/7-produccion-artistica-EN DESARROLLO/Tabla de Roles y Responsabilidades Produccion Artistica.xlsx
@@ -515,6 +515,54 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,54 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +888,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
       <c r="A3" s="21">
         <v>-20</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -959,7 +959,7 @@
       <c r="A4" s="21">
         <v>-18</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="12" t="s">
         <v>63</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="A5" s="21">
         <v>-17</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="A6" s="21">
         <v>-16</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="A7" s="21">
         <v>-15</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="A8" s="21">
         <v>-14</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1045,11 +1045,11 @@
       <c r="A9" s="21">
         <v>-13</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="25" t="s">
@@ -1063,11 +1063,11 @@
       <c r="A10" s="21">
         <v>-12</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="25" t="s">
         <v>66</v>
       </c>
@@ -1079,11 +1079,11 @@
       <c r="A11" s="21">
         <v>-11</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="25" t="s">
         <v>66</v>
       </c>
@@ -1095,11 +1095,11 @@
       <c r="A12" s="21">
         <v>-10</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="25" t="s">
         <v>66</v>
       </c>
@@ -1111,11 +1111,11 @@
       <c r="A13" s="21">
         <v>-9</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="25" t="s">
         <v>66</v>
       </c>
@@ -1127,11 +1127,11 @@
       <c r="A14" s="21">
         <v>-8</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="25" t="s">
         <v>61</v>
       </c>
@@ -1143,11 +1143,11 @@
       <c r="A15" s="21">
         <v>-7</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="25"/>
       <c r="F15" s="23"/>
       <c r="G15" s="12"/>
@@ -1157,11 +1157,11 @@
       <c r="A16" s="21">
         <v>-6</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="25" t="s">
         <v>66</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="A17" s="21">
         <v>-5</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="A18" s="21">
         <v>-4</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="A19" s="21">
         <v>-3</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="A20" s="21">
         <v>-2</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="A21" s="21">
         <v>-1</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
@@ -1276,10 +1276,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -1302,8 +1302,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
@@ -1324,8 +1324,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="14" t="s">
         <v>35</v>
       </c>
@@ -1346,8 +1346,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="14" t="s">
         <v>36</v>
       </c>
@@ -1366,8 +1366,8 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
@@ -1384,8 +1384,8 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
@@ -1406,8 +1406,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="14" t="s">
         <v>39</v>
       </c>
@@ -1422,8 +1422,8 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="14" t="s">
         <v>40</v>
       </c>
@@ -1438,8 +1438,8 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
@@ -1458,8 +1458,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
@@ -1478,8 +1478,8 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
@@ -1492,8 +1492,8 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="14" t="s">
         <v>54</v>
       </c>
@@ -1508,8 +1508,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="14" t="s">
         <v>55</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="A35" s="22">
         <v>2</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -1553,7 +1553,7 @@
       <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="15" t="s">
         <v>45</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="A37" s="22">
         <v>4</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="15" t="s">
         <v>46</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="A38" s="22">
         <v>5</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="17" t="s">
         <v>71</v>
       </c>
@@ -1611,70 +1611,70 @@
       <c r="A39" s="22">
         <v>6</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="43"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="33"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="49"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="43"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="33"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="43"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>7</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="23" t="s">
         <v>56</v>
       </c>
@@ -1687,12 +1687,12 @@
       <c r="A44" s="22">
         <v>8</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="30"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="23"/>
       <c r="G44" s="12" t="s">
         <v>59</v>
@@ -1701,12 +1701,12 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="31"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="23"/>
       <c r="G45" s="12" t="s">
         <v>59</v>
@@ -1715,18 +1715,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="E39:E42"/>
     <mergeCell ref="A22:A34"/>
     <mergeCell ref="B3:B21"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="B22:B34"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="E39:E42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E39">
